--- a/medicine/Sexualité et sexologie/Saison_1_de_Big_Mouth/Saison_1_de_Big_Mouth.xlsx
+++ b/medicine/Sexualité et sexologie/Saison_1_de_Big_Mouth/Saison_1_de_Big_Mouth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cet article présente les dix épisodes de la saison 1 de la série animée Big Mouth.
@@ -514,9 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Épisode 1 : Éjaculation
+          <t>Épisode 1 : Éjaculation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Titre original
-Ejaculation[2] Numéro de production
+Ejaculation Numéro de production
 1 (1-01)Résumé détaillé
 Alors qu’ils visionnent un film en classe de biologie sur la reproduction humaine, Andrew est complètement excité par le programme et reçoit la visite de Maurice, son Hormon Monster qui symbolise sa jeune sexualité frénétique et qui apparait aux moments les plus inopportuns. Pour se calmer, Andrew quitte la classe sous un faux motif pour aller se masturber aux toilettes.
 Andy est chez son ami Nick et partage le repas familial où les parents du jeune garçon finissent par embarrasser leur fils cadet à force de remarques mièvres et inappropriées. Dans la chambre de Nick, Andy se demande s’il fait bien d’aller au prochain bal de l’école car il n’a pas encore osé inviter une fille. Nick, qui n’a pas encore commencé sa puberté à son grand dam, rappelle à son ami qu’ils y vont en groupe avec Jessie et Jay.
@@ -527,29 +545,134 @@
 De son côté, Nick se rend dans le grenier de sa maison où réside le fantôme de Duke Ellington depuis son décès. Il lui confie son trouble d’avoir un plus petit sexe que celui de son ami. Duke l’incite à se trouver une copine pour le bal afin de lutter contre son complexe d’infériorité.
 Nick prend son courage à deux mains et invite Olivia, qui est deux classes au-dessus de lui. Guère intelligente, la jeune fille accepte au grand dam d’Andy et de ses amis qui se sentent lâchés par Nick. Poussé par son Hormon Monster, Andy insulte Nick et part fâché.
 Lors du bal, Andy fait de son mieux pour ignorer Nick qui a des remords quant à son comportement envers lui. Surtout qu’Olivia l’a remplacé par un élève plus âgé sans l’en avertir. Andy veut aller consoler son ami mais son amie Missy l’invite à une danse à ce moment-là. Maurice le pousse à accepter. Nick, lui, s’isole dans un couloir pour déprimer et Jessie l’y retrouve pour parler. Andrew est de plus en plus excité par la danse et finit par jouir dans son pantalon. Jessie essaye de conforter Nick et finit par embrasser le garçon sur sa bouche. Nick rejoint Andy aux WC, ce dernier essayant de laver son pantalon avant de le faire tomber dans la cuvette. Voyant son ami embarrassé, Nick lui offre son pantalon pour la suite de la soirée et est surpris d’apprendre que son baiser avec Jessie fait déjà l’objet de ragots.
-La nuit suivante, Nick a la surprise de voir Maurice provoquer une nouvelle poussée d’hormone chez son ami.
-Épisode 2 : Laisse couler
+La nuit suivante, Nick a la surprise de voir Maurice provoquer une nouvelle poussée d’hormone chez son ami.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Épisode 2 : Laisse couler</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Titre original
-Everybody Bleeds[2] Numéro de production
+Everybody Bleeds Numéro de production
 2 (1-02)Résumé détaillé
 Pendant que Nick et Andrew devisent de la signification d’une vidéo envoyée par Jessie, cette dernière se sens étrange et mal à l’aise malgré le soutien de sa mère.
 Avant de partir pour un voyage scolaire à la statue de la Liberté, Nick et Jessie se revoient, ne sachant pas trop quel sérieux donner à leur premier baiser. Poussés par leurs amis à se déclarer, Nick et Jessie tombent d’accord pour dire qu’ils sont en couple. Maurice pousse Andy à s’asseoir près de Missy mais Andy tarde trop et doit faire le voyage avec Steve, le professeur de sport incompétent, abruti et bavard.
 Durant le voyage, Jesse doute de ses sentiments envers Nick. Andrew est toujours énervé de se voir poser des lapins par ses amis. Jay, lui, se fait enlever par des gardes après qu’il a déclaré vouloir faire disparaitre la statue de la Liberté pour imiter un de ses tours de magie favori. Nick se renseigne pour connaitre ses obligations en tant que petit ami et la perspective de cela l’effraie un peu. Andrew se rend compte que Jesse a ses premières règles quand son short blanc se retrouve taché accidentellement. Isolée aux WC, Jesse envoie Andrew trouver de quoi lui sauver la mise mais il revient avec une serviette de plage commémorant le 11 septembre 2001. 
 Jay, lui, se retrouve dans une cave ou des suspects de terrorisme sont enfermés en secret. Nick surprend Andrew et Jessie qui s’enlacent, ignorant les problèmes de la jeune fille. Nick fait une crise de jalousie et Andy révèle que Jesse a eu ses règles pour s’en sortir. Jay est libéré après avoir impressionné les gardes avec ses tours de magie. De retour au collège, Jessie n’en veut plus à Nick mais elle est toujours énervée à cause de son problème. Andrew et Nick comprennent que la venue de ses règles va sans doute faire changer Jesse. 
-Chez elle, la jeune fille déprime en pensant aux problèmes qu’elle va devoir affronter désormais quand Connie, son Hormone monstress, lui apparait. Connie l’informe alors des défis mais aussi des plaisirs qu’elle recevra plus tard dans sa vie afin de devenir une femme accomplie pour contrebalancer les propos défaitistes de sa mère.
-Épisode 3 : Probablement gay
+Chez elle, la jeune fille déprime en pensant aux problèmes qu’elle va devoir affronter désormais quand Connie, son Hormone monstress, lui apparait. Connie l’informe alors des défis mais aussi des plaisirs qu’elle recevra plus tard dans sa vie afin de devenir une femme accomplie pour contrebalancer les propos défaitistes de sa mère.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Épisode 3 : Probablement gay</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Titre original
-Am I Gay ?[2] Numéro de production
+Am I Gay ? Numéro de production
 3 (1-03)Résumé détaillé
 Alors qu’ils regardent une bande annonce très suggestive, Andrew offre à Nick d’aller voir le film ensemble mais son ami lui dit qu’il doit le faire avec Jessie, ce que Andrew comprend. En revoyant la bande annonce le soir, Andy a une érection qu’il tente de justifier face à Maurice. Ce dernier lui fait passer un gay test qui se révèle positif selon lui.
 Le rendez-vous amoureux entre Nick et Jessie ne se passe pas très bien, les deux n’ayant presque rien à se dire en fait. Aux toilettes, Connie fait admettre à Jessie qu’elle apprécie Nick plus comme un ami que pour autre chose. À la sortie, Jessie propose à Nick de rester amis. Nick acquiesce, ignorant la vraie signification de sa demande. Ce n’est que le lendemain qu'il réalise qu’il s’est fait plaquer.
 Andrew demande à Matt, le seul élève gay qu’il connaisse, comment il a su qu’il était homo. Matt en conclu rapidement la vraie raison de sa demande avant d’aller animer sa matinale ou Nick prétend avoir rompu avec Jessie, ce qui met la jeune fille en colère. Andy lui veut savoir s’il est vraiment gay mais en tentant de visionner une vidéo porno gay, il ne fait que contaminer les ordinateurs de la maison avec un virus.
 Le lendemain, Jessie, furieuse, dit ses 4 vérités à Nick et l’humilie publiquement. Jay propose de répandre de fausses rumeurs sur elle afin de répliquer comme de prétendre qu’elle est lesbienne. Nick refuse car il craint d’être présenté comme gay à son tour en représailles. Andy va voir Duke pour chercher conseil. Ce dernier lui présente des gays célèbres morts et Freddie Mercury fait un show à Andy qui pense l’être pour de bon, se présentant officiellement en classe ainsi. Demandant conseil à Matt, ce dernier lui dit qu’il a déjà un petit ami en Nick.
 Jessie regrette de ne plus être amie avec Nick mais elle manque de courage pour lui parler pendant qu’ Andy essaye de savoir si Nick est gay ou pas. Il apprend de son côté par Duke qu’ Andy pense être gay. Voulant en savoir plus, Nick lui parle et Andy admet qu’il ne sait être gay ou pas et commence à se plaindre. Nick l’embrasse par surprise sur la bouche et Andy, qui n’a rien ressenti, comprend qu’il n’est pas gay.
-Au cinéma, Nick et Jessie se revoient et mettent les choses au clair, chacun admettant ses fautes en fin de compte. Les deux ados décident de redevenir amis et d’aller voie le film ensemble. Andy déclare à Matt qu’il n’est pas gay en fin de compte et il apprend de ce dernier que Maurice est aussi son Hormon Monster.
-Épisode 4 : Soirée pyjama
+Au cinéma, Nick et Jessie se revoient et mettent les choses au clair, chacun admettant ses fautes en fin de compte. Les deux ados décident de redevenir amis et d’aller voie le film ensemble. Andy déclare à Matt qu’il n’est pas gay en fin de compte et il apprend de ce dernier que Maurice est aussi son Hormon Monster.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Épisode 4 : Soirée pyjama</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Titre original
-Sleepover: A Harrowing Ordeal of Emotional Brutality[2] Numéro de production
+Sleepover: A Harrowing Ordeal of Emotional Brutality Numéro de production
 4 (1-04)Résumé détaillé
 Dans une cave, Andrew et Nick se battent jusqu’au sang pour décrocher le droit de regarder un film porno. Quelques heures auparavant, Jay les a invité à une soirée Pyjama, jurant que ses frères ainés ne seraient pas là.
 Jessie est en colère de voir qu’elle n’est pas invitée à la soirée, aussi organise-t-elle sa propre soirée avec Devin et Lola, les filles les plus populaires de l’école qu’elle n’apprécie pas sincèrement. Elle invite aussi Missy malgré le désaccord de Connie.
@@ -558,10 +681,45 @@
 Chez Jay, Kurt et Val, ses frères ainés, proposent aux garçons de regarder « Italian Stallion », le porno mythique que Stallone a tourné dans sa jeunesse. Pour cela, les garçons doivent prouver leur virilité par un combat. Andy et Nick tentent de truquer le combat pour ne pas se faire mal et voir le porno facilement. Nick touche Andy par hasard et le vrai combat commence.
 Devin profite de l’état de Missy pour lui faire embrasser son chien pour diffuser la vidéo sur le net par la suite. Kurt et Val ont eux décidé de jouer un tour aux garçons : ils vont diffuser le film de Stallone mais le quatuor doit se masturber et jouir sur un biscuit apéritif, le dernier à jouir devant le manger. Sachant que Nick n’est pas équipé pour et qu’il va perdre de toutes façons, Andy mange le biscuit et les garçons tentent de s’enfuir de la maison.
 Jessie se bat contre Lola pour l’empêcher de poster les photos de Missy sur le net et elle arrive à effacer les photos. Devin finit par craquer, ne supportant plus la pression induite par le fait de devoir rester en haut du classement de la popularité. Andy et Nick arrivent à fuir mais Andrew a perdu son oreiller fétiche et ne veut pas le laisser sur place sachant que Jay l’utilisera pour se masturber dedans. 
-Jessie utilise Lola pour calmer Devin et la réconcilier avec son amie. Jay aide Andrew et Nick fuir après qu’ils aient récupéré l’oreiller. Mais Andy le déchire sur la cloture sans y faire attention. Il se console avec la vidéo de Stallone que Maurice a volé pour lui réalisant tardivement que leur magnétoscope VHS est hors d’usage depuis un moment.
-Épisode 5 : Les filles aussi
+Jessie utilise Lola pour calmer Devin et la réconcilier avec son amie. Jay aide Andrew et Nick fuir après qu’ils aient récupéré l’oreiller. Mais Andy le déchire sur la cloture sans y faire attention. Il se console avec la vidéo de Stallone que Maurice a volé pour lui réalisant tardivement que leur magnétoscope VHS est hors d’usage depuis un moment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Épisode 5 : Les filles aussi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Titre original
-Girls Are Horny Too[2] Numéro de production
+Girls Are Horny Too Numéro de production
 5 (1-05)Résumé détaillé
 Profitant de ce que ses parents passent la soirée à regarder Jeopardy!, Andrew passe un bon moment en solitaire dans sa chambre avec Maurice qui lui enseigne que tout ce qui l’entoure peut avoir une connotation sexuelle.
 Avant une nouvelle journée d’école, Connie critique les soutien-gorge de Jessie qu’elle trouve très peu attractifs.
@@ -572,10 +730,45 @@
 La tension s’accroit entre les parents d’Andrew, sa mère voulant plus d’affection de la part de son mari mais ce dernier passe son temps à manger des scallops, ce qui n’arrange pas son transit intestinal.
 Jay tente sa chance mais Jessie l’étrangle à moitié pour lui faire comprendre qu’elle n’est pas intéressée. Nick commence à comprendre que ce n’est pas forcément le sexe qui ravit les femmes, mais l’érotisme bâti autour de l’interdit.
 Jessie essaye de comprendre la force du soutien-gorge. Connie essaye de la pousser à moins tenir compte de l’avis des autres pour affirmer sa personnalité, l’incitant à regarder son propre sexe pour mieux comprendre son corps féminin. Après une longue conversation avec son propre vagin, ce dernier l’incite à se masturber plus pour compléter sa connaissance de son propre désir.
-À l’école, Nick décroche une très bonne note en ayant compris parfaitement la psychologie féminine relative aux relations et au sexe pour son exposé. Andrew, lui, s’inquiète de voir qu’il commence à penser Missy sexy.
-Épisode 6 : La capote et l’oreiller
+À l’école, Nick décroche une très bonne note en ayant compris parfaitement la psychologie féminine relative aux relations et au sexe pour son exposé. Andrew, lui, s’inquiète de voir qu’il commence à penser Missy sexy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Épisode 6 : La capote et l’oreiller</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Titre original
-Pillow Talk[2] Numéro de production
+Pillow Talk Numéro de production
 6 (1-06)Résumé détaillé
 Jay se fait encore un plaisir solitaire dans son oreiller comme a son habitude. Mais cette fois, l’oreiller lui annonce que faute d’avoir usé de capotes, elle est enceinte.
 Andrew est content d’intégrer le club de jazz malgré son manque de talent à la clarinette, mais faute d’autre candidats, Missy et ses amis le font entrer dans l’orchestre quand même. Il est flatté quand Nick l’invite à aller à New York avec lui pour rencontrer une amie de Nick rencontrée au camp scout, mais il veut décliner l’invitation. Nick le convainc de venir tout de même avec l’aide de Duke. Pour sécher les cours tranquillement, ils fabriquent de fausses autorisations parentales qu’ils font contre-signer par Steve et laissent leurs portables à Jessie qui doit préparer sa bat-mitzvah.
@@ -586,10 +779,45 @@
 Chez Jay, son oreiller accouche de son petit coussin et Jay réalise à sa casquette qu’il est en réalité le fils de Kurt, son frère ainé. Jay se rappelle alors avoir laissé son oreiller libre de se faire utiliser par qui elle voulait.
 Sur le chemin du retour, Andrew estime que Jessie devrait connaitre la vérité. Nick est d’accord sur le fond mais redoute les conséquences imprévues. Leur absence ayant été remarquée en fin de compte, les garçons sont punis, Nick étant privé de Netflix pour 6 semaines.
 Jay constate lui avec dépit que son oreiller a décidé de partir avec son coussin, estimant en fin de compte qu’il n’a pas à élever un enfant qui n’est pas le sien. Jay se console avec le tapis de salle de bain crasseux.
-Au dernier moment, Nick et Andrew se montrent incapables de dire la vérité à Jessie.
-Épisode 7 : Requiem pour un rêve érotique
+Au dernier moment, Nick et Andrew se montrent incapables de dire la vérité à Jessie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Épisode 7 : Requiem pour un rêve érotique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Titre original
-Requiem for a Wet Dream[2] Numéro de production
+Requiem for a Wet Dream Numéro de production
 7 (1-07)Résumé détaillé
 Maurice raconte à Andrew comment la vie est apparue sur Terre, quand un Alien géant a eu un rapport sexuel avec un volcan. Andrew doute de la pertinence de l’information…
 La saison de l’exposition scientifique est arrivée mais pour des raisons budgétaires, les groupes de deux sont supprimés pour laisser la place à des trios. Nick et Andrew ne veulent pas de Jessie car ils se savent incapable de garder le secret sur sa mère plus longtemps. Matt accepte de prendre Jessie dans son équipe et suggère Jay pour compléter le trio. Malgré ses doutes, Andrew accepte d’avoir Missy pour compléter son groupe.
@@ -602,10 +830,45 @@
 Alors que Andy approche des cent heures sans s’être touché, Maurice estime de son devoir de s’excuser d’avoir décapité Garrison et d’avoir utilisé sa tête comme d’un sex-toy.
 Jay présente son propre projet en réaction au projet de Matt et Jessie qui se sont focalisés sur le manque de vie sociale des magiciens. Andy est de plus en plus excité et trouve chaque geste ou parole de Missy avoir une connotation sexuelle
 Au dernier moment, Jessie convainc Matt d’aider Jay dans son projet et ce dernier accepte pour ne pas avoir son suicide sur la conscience. La teleportation de Jay fonctionne, au grand dam de Matt qui ne comprend pas ce qui se passe. Alors que Missy présente son projet, une violente secousse sismique détruit le collège et Andy est englouti dans une mer de lave.
-Andrew se réveille et constate qu’il a fait un cauchemar et inondé ses draps de sperme comme Maurice l’en avait averti avant.
-Épisode 8 : Le Pousseur de tête
+Andrew se réveille et constate qu’il a fait un cauchemar et inondé ses draps de sperme comme Maurice l’en avait averti avant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Épisode 8 : Le Pousseur de tête</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Titre original
-The Head Push[2] Numéro de production
+The Head Push Numéro de production
 8 (1-08)Résumé détaillé
 Nick est forcé d’assister à une pièce de théâtre scientologiste car la secte a payé les réparations de l’auditorium. S’ennuyant, il écrit à Andy qui est invité par les parents de Missy à une partie de trivial pursuit. Andy apprend que sa sœur va profiter de l’absence de ses parents pour donner une fête clandestine pendant que Nick devra aller chez Andrew. Mais comme Andy est occupé, Leah n’a pas d’autre choix que de le laisser venir.
 La soirée commence et Leah admet avoir un faible pour Daniel, un acteur de la troupe locale. Nick lui est tombé amoureux de Talullah qui ne lui est pas indifférente. Andy refuse de venir mais Missy le pousse à faire de nouvelles expériences, mentant à ses parents pour venir aussi.
@@ -613,20 +876,90 @@
 Missy pousse Andrew à s’enfermer avec elle dans un placard de la chambre de Leah. Maurice pousse Andy à accepter. Connie sort de l’ombre et s’occupe de Maurice de son côté. Nick embrasse Talullah mais cette dernière explose de colère en apprenant la réputation qu’elle traine.
 Missy et Andy s’embrassent mais Andy se retire avant de jouir. Missy s’est laissé emporter et s’est frottée contre l’entrejambe de son ami. Ils sont retenus dans le placard par l’arrivée de Leah et Daniel qui s’embrassent tendrement. La situation dégénère quand Daniel essaye de forcer Leah à lui faire une fellation. Jessie est triste de voir son père fumer de plus en plus de marijuana. Nick gaffe en révélant que sa mère a une liaison avec une autre femme. Jessie est autant furieuse d’apprendre cela que de savoir que Nick n’a rien dit pendant deux semaines.
 Jessie va se saouler avec Jay et ils finissent par s’embrasser avant que Jessie ne dise à Jay que c’était juste l’histoire d’un soir. Leah profite d’un concours de mime pour dénoncer les actes de Daniel. Talullah comprend que c’est Daniel qui a créé sa sale réputation et ce dernier ne nie pas. Nick vomit abondamment dans son béret avant de laisser Leah le lui remettre de force sur sa tête.
-Deux semaines plus tard, Jessie annonce à ses amis que Daniel est mort, infecté par le vomi au brandy.
-Épisode 9 : La Bat Mitzvah de Jessi
+Deux semaines plus tard, Jessie annonce à ses amis que Daniel est mort, infecté par le vomi au brandy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Épisode 9 : La Bat Mitzvah de Jessi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Titre original
-Survived Jessi's Bat Mitzvah[2] Numéro de production
+Survived Jessi's Bat Mitzvah Numéro de production
 9 (1-09)Résumé détaillé
 Jay participe au tournage de la nouvelle publicité de son père dans laquelle ce dernier ne cache pas son aversion pour les magiciens et son affection pour les grenades dégoupillées par surprise…
 De retour chez eux, les parents de Nick punissent Leah et Jud pour avoir organisé une fête en leur absence. Nick n’est pas puni malgré sa complicité car il doit accompagner sa mère à la bat-mitsva de Jessie malgré ses protestations.
 Les parents de Missy exigent de leur fille qu’elle cesse de voir Andrew car ils savent qu’elle leur a menti pour sortir en cachette avec son ami. Shannon est furieuse d’apprendre que les amis de son mari qui avaient accepté de jouer pour la fête de leur fille lui posent un lapin à la dernière minute. Jessie est en colère de voir sa mère être aussi hypocrite. Nick en a assez de se voir traité comme un petit enfant et refuse de laisser sa mère le border comme un bébé, ce qui attriste sa mère.
 A la bat-mitzva, Andrew convainc Missy de se voir en secret. Jessie se rend compte que la chanteuse engagée est la femme avec qui Shannon trompe son mari. La fête se passe bien et le père d’ Andy résiste même à la tentation de manger des scallops. Jay se rapproche de plus en plus de la mère de Nick qu’il voudrait avoir comme vraie maman. Andy déclare sa flamme à Missy mais cette dernière vomi, victime du stress. Jessie est de plus en plus mal à l’aise en pensant à la lente rupture vécue par ses parents.
 Elle finit par craquer et par dire à sa mère qu’elle sait tout. Shannon admet tromper un mari dont elle ne sait plus si elle a encore des sentiments pour lui. Ce dernier a tout entendu par accident.
-Nick commence à avoir des regrets d’avoir été si rude avec sa mère et tient à lui faire savoir que s’il ne veut plus être traité comme un bébé, il continue à l’aimer tout de même. Missy déclare à Andy que si elle l’aime bien, elle se sens trop troublée et affaiblie par ses sentiments envers lui pour rester elle-même et elle décide de rompre pour de bon avec son ami. Seule, Jessie est rejointe par Jay et elle l’embrasse passionnément. Chacun de leur côté, Missy et Andy pleurent sur leur rupture.
-Épisode 10 : Les Aventuriers du pornivers
+Nick commence à avoir des regrets d’avoir été si rude avec sa mère et tient à lui faire savoir que s’il ne veut plus être traité comme un bébé, il continue à l’aimer tout de même. Missy déclare à Andy que si elle l’aime bien, elle se sens trop troublée et affaiblie par ses sentiments envers lui pour rester elle-même et elle décide de rompre pour de bon avec son ami. Seule, Jessie est rejointe par Jay et elle l’embrasse passionnément. Chacun de leur côté, Missy et Andy pleurent sur leur rupture.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saison_1_de_Big_Mouth</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Épisode 10 : Les Aventuriers du pornivers</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Titre original
-The Pornscape[2] Numéro de production
+The Pornscape Numéro de production
 10 (1-10)Résumé détaillé
 Andy est toujours déprimé et Nick répare son vieux magnétoscope pour enfin visionner le porno de Stallone. Andy s’en fiche mais rapidement il est intéressé par le contenu du film.
 Les enfants participent à une sortie scolaire au poste de police. Nick a son premier bouton d’acné et s’en félicite. Missy veut continuer à être l’amie d’ Andy mais ce dernier est encore trop affecté par sa rupture. Jessie et Jay se voient et s’embrassent en cachette des autres. Andy donne son ADN pour les besoins d’une expérience pendant que les policiers se disputent au sujet du nom à donner à un tueur en série qui sévit dans la région. Les policiers se rendent compte que Steve a beaucoup de points communs avec l’affaire en cours et le retiennent pour l’interroger.
